--- a/app/utils/ComandosEletricos.xlsx
+++ b/app/utils/ComandosEletricos.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8310" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8310" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Botao_comando" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1209" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1210" uniqueCount="299">
   <si>
     <t>Formato</t>
   </si>
@@ -1271,7 +1271,7 @@
   <dimension ref="A1:J71"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1296,7 +1296,7 @@
       <c r="D1" t="s">
         <v>233</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E1" t="s">
         <v>249</v>
       </c>
     </row>
@@ -3415,8 +3415,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4790,7 +4790,7 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5221,7 +5221,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5520,8 +5520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5547,6 +5547,9 @@
       <c r="D1" t="s">
         <v>247</v>
       </c>
+      <c r="E1" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">

--- a/app/utils/ComandosEletricos.xlsx
+++ b/app/utils/ComandosEletricos.xlsx
@@ -721,9 +721,6 @@
     <t xml:space="preserve">Comandos Elétricos </t>
   </si>
   <si>
-    <t>botaoComando</t>
-  </si>
-  <si>
     <t>Botão de Comando</t>
   </si>
   <si>
@@ -739,9 +736,6 @@
     <t>Imagem</t>
   </si>
   <si>
-    <t>chaveComutadora</t>
-  </si>
-  <si>
     <t>Chave Comutadora</t>
   </si>
   <si>
@@ -757,15 +751,9 @@
     <t>Lâmpadas</t>
   </si>
   <si>
-    <t>sinaleiroComando</t>
-  </si>
-  <si>
     <t>Sinaleiro de comando</t>
   </si>
   <si>
-    <t>acessoriosComando</t>
-  </si>
-  <si>
     <t>Acessórios de Comando</t>
   </si>
   <si>
@@ -889,9 +877,6 @@
     <t>MetaltexP20CAP3.png</t>
   </si>
   <si>
-    <t>Chave Comutadora {descricao} {posicao} {alimentacaoLED} {material}</t>
-  </si>
-  <si>
     <t>{descricao} {cor}</t>
   </si>
   <si>
@@ -920,6 +905,21 @@
   </si>
   <si>
     <t>VARCHAR(45)</t>
+  </si>
+  <si>
+    <t>acessorios_comando</t>
+  </si>
+  <si>
+    <t>sinaleiro_comando</t>
+  </si>
+  <si>
+    <t>botao_comando</t>
+  </si>
+  <si>
+    <t>chave Comutadora {descricao} {posicao} {alimentacaoLED} {material}</t>
+  </si>
+  <si>
+    <t>chave_comutadora</t>
   </si>
 </sst>
 </file>
@@ -1270,13 +1270,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J71"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D2" sqref="D1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" customWidth="1"/>
     <col min="3" max="3" width="63.42578125" customWidth="1"/>
     <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="37" bestFit="1" customWidth="1"/>
@@ -1285,51 +1285,51 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="B1" t="s">
         <v>231</v>
       </c>
       <c r="C1" t="s">
+        <v>296</v>
+      </c>
+      <c r="D1" t="s">
         <v>232</v>
       </c>
-      <c r="D1" t="s">
-        <v>233</v>
-      </c>
       <c r="E1" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>287</v>
+      </c>
+      <c r="B2" t="s">
+        <v>288</v>
+      </c>
+      <c r="C2" t="s">
+        <v>289</v>
+      </c>
+      <c r="D2" t="s">
+        <v>290</v>
+      </c>
+      <c r="E2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F2" t="s">
         <v>292</v>
       </c>
-      <c r="B2" t="s">
+      <c r="G2" t="s">
+        <v>288</v>
+      </c>
+      <c r="H2" t="s">
+        <v>290</v>
+      </c>
+      <c r="I2" t="s">
+        <v>289</v>
+      </c>
+      <c r="J2" t="s">
         <v>293</v>
-      </c>
-      <c r="C2" t="s">
-        <v>294</v>
-      </c>
-      <c r="D2" t="s">
-        <v>295</v>
-      </c>
-      <c r="E2" t="s">
-        <v>296</v>
-      </c>
-      <c r="F2" t="s">
-        <v>297</v>
-      </c>
-      <c r="G2" t="s">
-        <v>293</v>
-      </c>
-      <c r="H2" t="s">
-        <v>295</v>
-      </c>
-      <c r="I2" t="s">
-        <v>294</v>
-      </c>
-      <c r="J2" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -1419,7 +1419,7 @@
         <v>174</v>
       </c>
       <c r="I5" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="J5" t="s">
         <v>12</v>
@@ -1448,7 +1448,7 @@
         <v>174</v>
       </c>
       <c r="I6" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="J6" t="s">
         <v>15</v>
@@ -1477,7 +1477,7 @@
         <v>174</v>
       </c>
       <c r="I7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="J7" t="s">
         <v>17</v>
@@ -1506,7 +1506,7 @@
         <v>174</v>
       </c>
       <c r="I8" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="J8" t="s">
         <v>19</v>
@@ -1535,7 +1535,7 @@
         <v>174</v>
       </c>
       <c r="I9" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="J9" t="s">
         <v>21</v>
@@ -1564,7 +1564,7 @@
         <v>174</v>
       </c>
       <c r="I10" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="J10" t="s">
         <v>23</v>
@@ -1593,7 +1593,7 @@
         <v>175</v>
       </c>
       <c r="I11" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="J11" t="s">
         <v>24</v>
@@ -1622,7 +1622,7 @@
         <v>175</v>
       </c>
       <c r="I12" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="J12" t="s">
         <v>25</v>
@@ -1651,7 +1651,7 @@
         <v>175</v>
       </c>
       <c r="I13" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="J13" t="s">
         <v>26</v>
@@ -1680,7 +1680,7 @@
         <v>175</v>
       </c>
       <c r="I14" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="J14" t="s">
         <v>27</v>
@@ -1709,7 +1709,7 @@
         <v>175</v>
       </c>
       <c r="I15" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="J15" t="s">
         <v>28</v>
@@ -1738,7 +1738,7 @@
         <v>175</v>
       </c>
       <c r="I16" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="J16" t="s">
         <v>29</v>
@@ -1767,7 +1767,7 @@
         <v>175</v>
       </c>
       <c r="I17" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="J17" t="s">
         <v>30</v>
@@ -1796,7 +1796,7 @@
         <v>175</v>
       </c>
       <c r="I18" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="J18" t="s">
         <v>31</v>
@@ -1825,7 +1825,7 @@
         <v>175</v>
       </c>
       <c r="I19" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="J19" t="s">
         <v>32</v>
@@ -1854,7 +1854,7 @@
         <v>175</v>
       </c>
       <c r="I20" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="J20" t="s">
         <v>33</v>
@@ -1883,7 +1883,7 @@
         <v>175</v>
       </c>
       <c r="I21" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="J21" t="s">
         <v>34</v>
@@ -1912,7 +1912,7 @@
         <v>175</v>
       </c>
       <c r="I22" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="J22" t="s">
         <v>35</v>
@@ -1941,7 +1941,7 @@
         <v>174</v>
       </c>
       <c r="I23" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="J23" t="s">
         <v>36</v>
@@ -1970,7 +1970,7 @@
         <v>174</v>
       </c>
       <c r="I24" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="J24" t="s">
         <v>37</v>
@@ -1999,7 +1999,7 @@
         <v>174</v>
       </c>
       <c r="I25" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="J25" t="s">
         <v>38</v>
@@ -2028,7 +2028,7 @@
         <v>174</v>
       </c>
       <c r="I26" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="J26" t="s">
         <v>39</v>
@@ -2057,7 +2057,7 @@
         <v>174</v>
       </c>
       <c r="I27" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="J27" t="s">
         <v>40</v>
@@ -2086,7 +2086,7 @@
         <v>174</v>
       </c>
       <c r="I28" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="J28" t="s">
         <v>41</v>
@@ -2118,7 +2118,7 @@
         <v>157</v>
       </c>
       <c r="I29" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="J29" t="s">
         <v>176</v>
@@ -2150,7 +2150,7 @@
         <v>158</v>
       </c>
       <c r="I30" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="J30" t="s">
         <v>177</v>
@@ -2182,7 +2182,7 @@
         <v>157</v>
       </c>
       <c r="I31" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="J31" t="s">
         <v>178</v>
@@ -2214,7 +2214,7 @@
         <v>158</v>
       </c>
       <c r="I32" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="J32" t="s">
         <v>179</v>
@@ -2246,7 +2246,7 @@
         <v>157</v>
       </c>
       <c r="I33" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="J33" t="s">
         <v>180</v>
@@ -2278,7 +2278,7 @@
         <v>158</v>
       </c>
       <c r="I34" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="J34" t="s">
         <v>181</v>
@@ -2310,7 +2310,7 @@
         <v>157</v>
       </c>
       <c r="I35" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="J35" t="s">
         <v>182</v>
@@ -2342,7 +2342,7 @@
         <v>158</v>
       </c>
       <c r="I36" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="J36" t="s">
         <v>183</v>
@@ -2374,7 +2374,7 @@
         <v>157</v>
       </c>
       <c r="I37" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="J37" t="s">
         <v>184</v>
@@ -2406,7 +2406,7 @@
         <v>158</v>
       </c>
       <c r="I38" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="J38" t="s">
         <v>185</v>
@@ -2438,7 +2438,7 @@
         <v>157</v>
       </c>
       <c r="I39" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="J39" t="s">
         <v>186</v>
@@ -2470,7 +2470,7 @@
         <v>158</v>
       </c>
       <c r="I40" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="J40" t="s">
         <v>187</v>
@@ -2502,7 +2502,7 @@
         <v>157</v>
       </c>
       <c r="I41" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="J41" t="s">
         <v>188</v>
@@ -2534,7 +2534,7 @@
         <v>158</v>
       </c>
       <c r="I42" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="J42" t="s">
         <v>189</v>
@@ -2566,7 +2566,7 @@
         <v>157</v>
       </c>
       <c r="I43" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="J43" t="s">
         <v>190</v>
@@ -2598,7 +2598,7 @@
         <v>158</v>
       </c>
       <c r="I44" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="J44" t="s">
         <v>191</v>
@@ -2630,7 +2630,7 @@
         <v>157</v>
       </c>
       <c r="I45" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="J45" t="s">
         <v>192</v>
@@ -2662,7 +2662,7 @@
         <v>158</v>
       </c>
       <c r="I46" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="J46" t="s">
         <v>193</v>
@@ -2694,7 +2694,7 @@
         <v>157</v>
       </c>
       <c r="I47" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="J47" t="s">
         <v>194</v>
@@ -2726,7 +2726,7 @@
         <v>158</v>
       </c>
       <c r="I48" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="J48" t="s">
         <v>195</v>
@@ -2755,7 +2755,7 @@
         <v>174</v>
       </c>
       <c r="I49" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="J49" t="s">
         <v>44</v>
@@ -2784,7 +2784,7 @@
         <v>175</v>
       </c>
       <c r="I50" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="J50" t="s">
         <v>45</v>
@@ -2813,7 +2813,7 @@
         <v>175</v>
       </c>
       <c r="I51" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="J51" t="s">
         <v>46</v>
@@ -2842,7 +2842,7 @@
         <v>175</v>
       </c>
       <c r="I52" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="J52" t="s">
         <v>47</v>
@@ -2871,7 +2871,7 @@
         <v>175</v>
       </c>
       <c r="I53" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="J53" t="s">
         <v>48</v>
@@ -2900,7 +2900,7 @@
         <v>174</v>
       </c>
       <c r="I54" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="J54" t="s">
         <v>49</v>
@@ -2929,7 +2929,7 @@
         <v>174</v>
       </c>
       <c r="I55" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="J55" t="s">
         <v>50</v>
@@ -2958,7 +2958,7 @@
         <v>174</v>
       </c>
       <c r="I56" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="J56" t="s">
         <v>51</v>
@@ -2987,7 +2987,7 @@
         <v>174</v>
       </c>
       <c r="I57" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="J57" t="s">
         <v>52</v>
@@ -3016,7 +3016,7 @@
         <v>174</v>
       </c>
       <c r="I58" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="J58" t="s">
         <v>54</v>
@@ -3045,7 +3045,7 @@
         <v>174</v>
       </c>
       <c r="I59" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="J59" t="s">
         <v>56</v>
@@ -3074,7 +3074,7 @@
         <v>175</v>
       </c>
       <c r="I60" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="J60" t="s">
         <v>57</v>
@@ -3103,7 +3103,7 @@
         <v>175</v>
       </c>
       <c r="I61" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="J61" t="s">
         <v>58</v>
@@ -3132,7 +3132,7 @@
         <v>174</v>
       </c>
       <c r="I62" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="J62" t="s">
         <v>60</v>
@@ -3161,7 +3161,7 @@
         <v>175</v>
       </c>
       <c r="I63" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="J63" t="s">
         <v>61</v>
@@ -3190,7 +3190,7 @@
         <v>174</v>
       </c>
       <c r="I64" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="J64" t="s">
         <v>63</v>
@@ -3219,7 +3219,7 @@
         <v>175</v>
       </c>
       <c r="I65" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="J65" t="s">
         <v>64</v>
@@ -3251,7 +3251,7 @@
         <v>157</v>
       </c>
       <c r="I66" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="J66" t="s">
         <v>196</v>
@@ -3283,7 +3283,7 @@
         <v>158</v>
       </c>
       <c r="I67" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="J67" t="s">
         <v>197</v>
@@ -3315,7 +3315,7 @@
         <v>157</v>
       </c>
       <c r="I68" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="J68" t="s">
         <v>198</v>
@@ -3347,7 +3347,7 @@
         <v>158</v>
       </c>
       <c r="I69" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="J69" t="s">
         <v>199</v>
@@ -3373,7 +3373,7 @@
         <v>174</v>
       </c>
       <c r="I70" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="J70" t="s">
         <v>67</v>
@@ -3399,7 +3399,7 @@
         <v>175</v>
       </c>
       <c r="I71" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="J71" t="s">
         <v>68</v>
@@ -3415,8 +3415,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3436,19 +3436,19 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="B1" t="s">
         <v>231</v>
       </c>
       <c r="C1" t="s">
-        <v>238</v>
+        <v>298</v>
       </c>
       <c r="D1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E1" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -3459,31 +3459,31 @@
         <v>224</v>
       </c>
       <c r="C2" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D2" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="E2" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="F2" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="G2" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="H2" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="I2" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="J2" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="K2" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -3506,13 +3506,13 @@
         <v>219</v>
       </c>
       <c r="G3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="H3" t="s">
         <v>220</v>
       </c>
       <c r="I3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J3" t="s">
         <v>225</v>
@@ -3541,16 +3541,16 @@
         <v>3</v>
       </c>
       <c r="G4" t="s">
+        <v>233</v>
+      </c>
+      <c r="H4" t="s">
         <v>234</v>
-      </c>
-      <c r="H4" t="s">
-        <v>235</v>
       </c>
       <c r="I4" t="s">
         <v>6</v>
       </c>
       <c r="J4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K4" t="s">
         <v>150</v>
@@ -3583,7 +3583,7 @@
         <v>Metálico</v>
       </c>
       <c r="J5" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="K5" t="s">
         <v>70</v>
@@ -3616,7 +3616,7 @@
         <v>Metálico</v>
       </c>
       <c r="J6" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="K6" t="s">
         <v>72</v>
@@ -3649,7 +3649,7 @@
         <v>Metálico</v>
       </c>
       <c r="J7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="K7" t="s">
         <v>75</v>
@@ -3682,7 +3682,7 @@
         <v>Metálico</v>
       </c>
       <c r="J8" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="K8" t="s">
         <v>77</v>
@@ -3715,7 +3715,7 @@
         <v>Plástico</v>
       </c>
       <c r="J9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K9" t="s">
         <v>78</v>
@@ -3748,7 +3748,7 @@
         <v>Metálico</v>
       </c>
       <c r="J10" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="K10" t="s">
         <v>80</v>
@@ -3781,7 +3781,7 @@
         <v>Plástico</v>
       </c>
       <c r="J11" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K11" t="s">
         <v>81</v>
@@ -3814,7 +3814,7 @@
         <v>Metálico</v>
       </c>
       <c r="J12" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="K12" t="s">
         <v>83</v>
@@ -3847,7 +3847,7 @@
         <v>Plástico</v>
       </c>
       <c r="J13" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K13" t="s">
         <v>84</v>
@@ -3880,7 +3880,7 @@
         <v>Plástico</v>
       </c>
       <c r="J14" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K14" t="s">
         <v>85</v>
@@ -3913,7 +3913,7 @@
         <v>Plástico</v>
       </c>
       <c r="J15" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K15" t="s">
         <v>86</v>
@@ -3946,7 +3946,7 @@
         <v>Plástico</v>
       </c>
       <c r="J16" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K16" t="s">
         <v>87</v>
@@ -3979,7 +3979,7 @@
         <v>Metálico</v>
       </c>
       <c r="J17" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="K17" t="s">
         <v>88</v>
@@ -4012,7 +4012,7 @@
         <v>Metálico</v>
       </c>
       <c r="J18" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="K18" t="s">
         <v>89</v>
@@ -4045,7 +4045,7 @@
         <v>Metálico</v>
       </c>
       <c r="J19" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="K19" t="s">
         <v>90</v>
@@ -4078,7 +4078,7 @@
         <v>Metálico</v>
       </c>
       <c r="J20" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="K20" t="s">
         <v>91</v>
@@ -4111,7 +4111,7 @@
         <v>Plástico</v>
       </c>
       <c r="J21" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K21" t="s">
         <v>92</v>
@@ -4144,7 +4144,7 @@
         <v>Plástico</v>
       </c>
       <c r="J22" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K22" t="s">
         <v>93</v>
@@ -4177,7 +4177,7 @@
         <v>Plástico</v>
       </c>
       <c r="J23" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K23" t="s">
         <v>94</v>
@@ -4210,7 +4210,7 @@
         <v>Plástico</v>
       </c>
       <c r="J24" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K24" t="s">
         <v>95</v>
@@ -4246,7 +4246,7 @@
         <v>157</v>
       </c>
       <c r="J25" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="K25" t="s">
         <v>155</v>
@@ -4282,7 +4282,7 @@
         <v>158</v>
       </c>
       <c r="J26" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="K26" t="s">
         <v>156</v>
@@ -4318,7 +4318,7 @@
         <v>157</v>
       </c>
       <c r="J27" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="K27" t="s">
         <v>159</v>
@@ -4354,7 +4354,7 @@
         <v>158</v>
       </c>
       <c r="J28" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="K28" t="s">
         <v>160</v>
@@ -4390,7 +4390,7 @@
         <v>157</v>
       </c>
       <c r="J29" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="K29" t="s">
         <v>161</v>
@@ -4426,7 +4426,7 @@
         <v>158</v>
       </c>
       <c r="J30" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="K30" t="s">
         <v>162</v>
@@ -4462,7 +4462,7 @@
         <v>157</v>
       </c>
       <c r="J31" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="K31" t="s">
         <v>163</v>
@@ -4498,7 +4498,7 @@
         <v>158</v>
       </c>
       <c r="J32" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="K32" t="s">
         <v>164</v>
@@ -4534,7 +4534,7 @@
         <v>157</v>
       </c>
       <c r="J33" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="K33" t="s">
         <v>165</v>
@@ -4570,7 +4570,7 @@
         <v>158</v>
       </c>
       <c r="J34" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="K34" t="s">
         <v>166</v>
@@ -4606,7 +4606,7 @@
         <v>157</v>
       </c>
       <c r="J35" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="K35" t="s">
         <v>167</v>
@@ -4642,7 +4642,7 @@
         <v>158</v>
       </c>
       <c r="J36" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="K36" t="s">
         <v>168</v>
@@ -4675,7 +4675,7 @@
         <v>Plástico</v>
       </c>
       <c r="J37" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="K37" t="s">
         <v>96</v>
@@ -4708,7 +4708,7 @@
         <v>Plástico</v>
       </c>
       <c r="J38" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="K38" t="s">
         <v>97</v>
@@ -4741,7 +4741,7 @@
         <v>Metálico</v>
       </c>
       <c r="J39" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="K39" t="s">
         <v>98</v>
@@ -4774,7 +4774,7 @@
         <v>Metálico</v>
       </c>
       <c r="J40" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="K40" t="s">
         <v>99</v>
@@ -4804,36 +4804,36 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="B1" t="s">
         <v>231</v>
       </c>
       <c r="C1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E1" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="B2" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C2" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="D2" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="E2" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -4864,7 +4864,7 @@
         <v>203</v>
       </c>
       <c r="D4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E4" t="s">
         <v>150</v>
@@ -4881,7 +4881,7 @@
         <v>118</v>
       </c>
       <c r="D5" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E5" t="s">
         <v>119</v>
@@ -4898,7 +4898,7 @@
         <v>118</v>
       </c>
       <c r="D6" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E6" t="s">
         <v>120</v>
@@ -4915,7 +4915,7 @@
         <v>118</v>
       </c>
       <c r="D7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E7" t="s">
         <v>121</v>
@@ -4932,7 +4932,7 @@
         <v>118</v>
       </c>
       <c r="D8" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E8" t="s">
         <v>122</v>
@@ -4949,7 +4949,7 @@
         <v>118</v>
       </c>
       <c r="D9" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E9" t="s">
         <v>123</v>
@@ -4966,7 +4966,7 @@
         <v>124</v>
       </c>
       <c r="D10" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E10" t="s">
         <v>125</v>
@@ -4983,7 +4983,7 @@
         <v>124</v>
       </c>
       <c r="D11" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E11" t="s">
         <v>126</v>
@@ -5000,7 +5000,7 @@
         <v>124</v>
       </c>
       <c r="D12" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E12" t="s">
         <v>127</v>
@@ -5017,7 +5017,7 @@
         <v>124</v>
       </c>
       <c r="D13" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E13" t="s">
         <v>128</v>
@@ -5034,7 +5034,7 @@
         <v>124</v>
       </c>
       <c r="D14" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E14" t="s">
         <v>129</v>
@@ -5051,7 +5051,7 @@
         <v>130</v>
       </c>
       <c r="D15" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E15" t="s">
         <v>131</v>
@@ -5068,7 +5068,7 @@
         <v>130</v>
       </c>
       <c r="D16" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E16" t="s">
         <v>132</v>
@@ -5085,7 +5085,7 @@
         <v>130</v>
       </c>
       <c r="D17" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E17" t="s">
         <v>133</v>
@@ -5102,7 +5102,7 @@
         <v>130</v>
       </c>
       <c r="D18" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E18" t="s">
         <v>134</v>
@@ -5119,7 +5119,7 @@
         <v>130</v>
       </c>
       <c r="D19" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E19" t="s">
         <v>135</v>
@@ -5136,7 +5136,7 @@
         <v>136</v>
       </c>
       <c r="D20" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E20" t="s">
         <v>137</v>
@@ -5153,7 +5153,7 @@
         <v>136</v>
       </c>
       <c r="D21" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E21" t="s">
         <v>138</v>
@@ -5170,7 +5170,7 @@
         <v>136</v>
       </c>
       <c r="D22" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E22" t="s">
         <v>139</v>
@@ -5187,7 +5187,7 @@
         <v>136</v>
       </c>
       <c r="D23" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E23" t="s">
         <v>140</v>
@@ -5204,7 +5204,7 @@
         <v>136</v>
       </c>
       <c r="D24" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E24" t="s">
         <v>141</v>
@@ -5221,7 +5221,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5236,44 +5236,44 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="B1" t="s">
         <v>231</v>
       </c>
       <c r="C1" t="s">
-        <v>244</v>
+        <v>295</v>
       </c>
       <c r="D1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="E1" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="B2" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="C2" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="D2" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="E2" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="F2" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B3" t="s">
         <v>217</v>
@@ -5305,7 +5305,7 @@
         <v>205</v>
       </c>
       <c r="E4" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F4" t="s">
         <v>150</v>
@@ -5316,7 +5316,7 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C5" t="s">
         <v>22</v>
@@ -5325,7 +5325,7 @@
         <v>157</v>
       </c>
       <c r="E5" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F5" t="s">
         <v>206</v>
@@ -5336,7 +5336,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C6" t="s">
         <v>22</v>
@@ -5345,7 +5345,7 @@
         <v>158</v>
       </c>
       <c r="E6" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F6" t="s">
         <v>207</v>
@@ -5356,7 +5356,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C7" t="s">
         <v>16</v>
@@ -5365,7 +5365,7 @@
         <v>157</v>
       </c>
       <c r="E7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F7" t="s">
         <v>208</v>
@@ -5376,7 +5376,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
@@ -5385,7 +5385,7 @@
         <v>158</v>
       </c>
       <c r="E8" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F8" t="s">
         <v>209</v>
@@ -5396,7 +5396,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C9" t="s">
         <v>13</v>
@@ -5405,7 +5405,7 @@
         <v>157</v>
       </c>
       <c r="E9" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F9" t="s">
         <v>210</v>
@@ -5416,7 +5416,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C10" t="s">
         <v>13</v>
@@ -5425,7 +5425,7 @@
         <v>158</v>
       </c>
       <c r="E10" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F10" t="s">
         <v>211</v>
@@ -5436,7 +5436,7 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C11" t="s">
         <v>20</v>
@@ -5445,7 +5445,7 @@
         <v>157</v>
       </c>
       <c r="E11" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F11" t="s">
         <v>212</v>
@@ -5456,7 +5456,7 @@
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C12" t="s">
         <v>20</v>
@@ -5465,7 +5465,7 @@
         <v>158</v>
       </c>
       <c r="E12" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F12" t="s">
         <v>213</v>
@@ -5476,7 +5476,7 @@
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C13" t="s">
         <v>18</v>
@@ -5485,7 +5485,7 @@
         <v>157</v>
       </c>
       <c r="E13" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F13" t="s">
         <v>214</v>
@@ -5496,7 +5496,7 @@
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C14" t="s">
         <v>18</v>
@@ -5505,7 +5505,7 @@
         <v>158</v>
       </c>
       <c r="E14" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F14" t="s">
         <v>215</v>
@@ -5521,7 +5521,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5536,39 +5536,39 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="B1" t="s">
         <v>231</v>
       </c>
       <c r="C1" t="s">
-        <v>246</v>
+        <v>294</v>
       </c>
       <c r="D1" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E1" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="B2" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="C2" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="D2" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="E2" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="F2" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -5605,7 +5605,7 @@
         <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F4" t="s">
         <v>150</v>
@@ -5616,10 +5616,10 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="E5" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="F5" t="s">
         <v>100</v>
@@ -5633,7 +5633,7 @@
         <v>101</v>
       </c>
       <c r="E6" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="F6" t="s">
         <v>102</v>
@@ -5647,7 +5647,7 @@
         <v>103</v>
       </c>
       <c r="E7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="F7" t="s">
         <v>104</v>
@@ -5661,7 +5661,7 @@
         <v>105</v>
       </c>
       <c r="E8" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="F8" t="s">
         <v>106</v>
@@ -5675,7 +5675,7 @@
         <v>107</v>
       </c>
       <c r="E9" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F9" t="s">
         <v>108</v>
@@ -5689,7 +5689,7 @@
         <v>109</v>
       </c>
       <c r="E10" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="F10" t="s">
         <v>110</v>
@@ -5703,7 +5703,7 @@
         <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="F11" t="s">
         <v>112</v>
@@ -5717,7 +5717,7 @@
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="F12" t="s">
         <v>114</v>
@@ -5731,7 +5731,7 @@
         <v>115</v>
       </c>
       <c r="E13" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="F13" t="s">
         <v>116</v>
@@ -5745,7 +5745,7 @@
         <v>115</v>
       </c>
       <c r="E14" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="F14" t="s">
         <v>117</v>
@@ -5759,7 +5759,7 @@
         <v>142</v>
       </c>
       <c r="E15" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="F15" t="s">
         <v>143</v>
@@ -5770,7 +5770,7 @@
         <v>144</v>
       </c>
       <c r="E16" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="F16" t="s">
         <v>145</v>
@@ -5781,7 +5781,7 @@
         <v>146</v>
       </c>
       <c r="E17" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="F17" t="s">
         <v>147</v>
@@ -5792,7 +5792,7 @@
         <v>148</v>
       </c>
       <c r="E18" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="F18" t="s">
         <v>149</v>

--- a/app/utils/ComandosEletricos.xlsx
+++ b/app/utils/ComandosEletricos.xlsx
@@ -1271,7 +1271,7 @@
   <dimension ref="A1:J71"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D1:D2"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1390,7 +1390,7 @@
         <v>6</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="J4" t="s">
         <v>226</v>
@@ -3416,7 +3416,7 @@
   <dimension ref="A1:K40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4790,14 +4790,14 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.7109375" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.140625" customWidth="1"/>
     <col min="4" max="4" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" customWidth="1"/>
   </cols>
@@ -5521,7 +5521,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/app/utils/ComandosEletricos.xlsx
+++ b/app/utils/ComandosEletricos.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8310" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8310" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Botao_comando" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1210" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1215" uniqueCount="300">
   <si>
     <t>Formato</t>
   </si>
@@ -920,6 +920,9 @@
   </si>
   <si>
     <t>chave_comutadora</t>
+  </si>
+  <si>
+    <t>unidade(s)</t>
   </si>
 </sst>
 </file>
@@ -1271,7 +1274,7 @@
   <dimension ref="A1:J71"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1299,6 +1302,9 @@
       <c r="E1" t="s">
         <v>245</v>
       </c>
+      <c r="F1" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -3416,7 +3422,7 @@
   <dimension ref="A1:K40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3450,6 +3456,9 @@
       <c r="E1" t="s">
         <v>297</v>
       </c>
+      <c r="F1" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -4787,10 +4796,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4802,7 +4811,7 @@
     <col min="5" max="5" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>286</v>
       </c>
@@ -4818,8 +4827,11 @@
       <c r="E1" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>293</v>
       </c>
@@ -4836,7 +4848,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>217</v>
       </c>
@@ -4853,7 +4865,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>202</v>
       </c>
@@ -4870,7 +4882,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>201</v>
       </c>
@@ -4887,7 +4899,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>201</v>
       </c>
@@ -4904,7 +4916,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>201</v>
       </c>
@@ -4921,7 +4933,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>201</v>
       </c>
@@ -4938,7 +4950,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>201</v>
       </c>
@@ -4955,7 +4967,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>201</v>
       </c>
@@ -4972,7 +4984,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>201</v>
       </c>
@@ -4989,7 +5001,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>201</v>
       </c>
@@ -5006,7 +5018,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>201</v>
       </c>
@@ -5023,7 +5035,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>201</v>
       </c>
@@ -5040,7 +5052,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>201</v>
       </c>
@@ -5057,7 +5069,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>201</v>
       </c>
@@ -5220,8 +5232,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5250,6 +5262,9 @@
       <c r="E1" t="s">
         <v>285</v>
       </c>
+      <c r="F1" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -5520,8 +5535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5550,6 +5565,9 @@
       <c r="E1" t="s">
         <v>284</v>
       </c>
+      <c r="F1" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">

--- a/app/utils/ComandosEletricos.xlsx
+++ b/app/utils/ComandosEletricos.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8310" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8310"/>
   </bookViews>
   <sheets>
     <sheet name="Botao_comando" sheetId="1" r:id="rId1"/>
@@ -760,9 +760,6 @@
     <t xml:space="preserve">furo </t>
   </si>
   <si>
-    <t>{descricao} {fomato} furo {furo} {cor}</t>
-  </si>
-  <si>
     <t>metaltexBotaoFaceadoMetalico.png</t>
   </si>
   <si>
@@ -923,6 +920,9 @@
   </si>
   <si>
     <t>unidade(s)</t>
+  </si>
+  <si>
+    <t>Botão de Comando {formato}, {descricao},furo {furo} {cor}</t>
   </si>
 </sst>
 </file>
@@ -1273,8 +1273,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J71"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1288,54 +1288,54 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B1" t="s">
         <v>231</v>
       </c>
       <c r="C1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D1" t="s">
         <v>232</v>
       </c>
-      <c r="E1" t="s">
-        <v>245</v>
+      <c r="E1" s="1" t="s">
+        <v>299</v>
       </c>
       <c r="F1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B2" t="s">
         <v>287</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>288</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>289</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>290</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>291</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
+        <v>287</v>
+      </c>
+      <c r="H2" t="s">
+        <v>289</v>
+      </c>
+      <c r="I2" t="s">
+        <v>288</v>
+      </c>
+      <c r="J2" t="s">
         <v>292</v>
-      </c>
-      <c r="G2" t="s">
-        <v>288</v>
-      </c>
-      <c r="H2" t="s">
-        <v>290</v>
-      </c>
-      <c r="I2" t="s">
-        <v>289</v>
-      </c>
-      <c r="J2" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -1425,7 +1425,7 @@
         <v>174</v>
       </c>
       <c r="I5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="J5" t="s">
         <v>12</v>
@@ -1454,7 +1454,7 @@
         <v>174</v>
       </c>
       <c r="I6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="J6" t="s">
         <v>15</v>
@@ -1483,7 +1483,7 @@
         <v>174</v>
       </c>
       <c r="I7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="J7" t="s">
         <v>17</v>
@@ -1512,7 +1512,7 @@
         <v>174</v>
       </c>
       <c r="I8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="J8" t="s">
         <v>19</v>
@@ -1541,7 +1541,7 @@
         <v>174</v>
       </c>
       <c r="I9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="J9" t="s">
         <v>21</v>
@@ -1570,7 +1570,7 @@
         <v>174</v>
       </c>
       <c r="I10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="J10" t="s">
         <v>23</v>
@@ -1599,7 +1599,7 @@
         <v>175</v>
       </c>
       <c r="I11" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J11" t="s">
         <v>24</v>
@@ -1628,7 +1628,7 @@
         <v>175</v>
       </c>
       <c r="I12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J12" t="s">
         <v>25</v>
@@ -1657,7 +1657,7 @@
         <v>175</v>
       </c>
       <c r="I13" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J13" t="s">
         <v>26</v>
@@ -1686,7 +1686,7 @@
         <v>175</v>
       </c>
       <c r="I14" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J14" t="s">
         <v>27</v>
@@ -1715,7 +1715,7 @@
         <v>175</v>
       </c>
       <c r="I15" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J15" t="s">
         <v>28</v>
@@ -1744,7 +1744,7 @@
         <v>175</v>
       </c>
       <c r="I16" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J16" t="s">
         <v>29</v>
@@ -1773,7 +1773,7 @@
         <v>175</v>
       </c>
       <c r="I17" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J17" t="s">
         <v>30</v>
@@ -1802,7 +1802,7 @@
         <v>175</v>
       </c>
       <c r="I18" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J18" t="s">
         <v>31</v>
@@ -1831,7 +1831,7 @@
         <v>175</v>
       </c>
       <c r="I19" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J19" t="s">
         <v>32</v>
@@ -1860,7 +1860,7 @@
         <v>175</v>
       </c>
       <c r="I20" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J20" t="s">
         <v>33</v>
@@ -1889,7 +1889,7 @@
         <v>175</v>
       </c>
       <c r="I21" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J21" t="s">
         <v>34</v>
@@ -1918,7 +1918,7 @@
         <v>175</v>
       </c>
       <c r="I22" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J22" t="s">
         <v>35</v>
@@ -1947,7 +1947,7 @@
         <v>174</v>
       </c>
       <c r="I23" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J23" t="s">
         <v>36</v>
@@ -1976,7 +1976,7 @@
         <v>174</v>
       </c>
       <c r="I24" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J24" t="s">
         <v>37</v>
@@ -2005,7 +2005,7 @@
         <v>174</v>
       </c>
       <c r="I25" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J25" t="s">
         <v>38</v>
@@ -2034,7 +2034,7 @@
         <v>174</v>
       </c>
       <c r="I26" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J26" t="s">
         <v>39</v>
@@ -2063,7 +2063,7 @@
         <v>174</v>
       </c>
       <c r="I27" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J27" t="s">
         <v>40</v>
@@ -2092,7 +2092,7 @@
         <v>174</v>
       </c>
       <c r="I28" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J28" t="s">
         <v>41</v>
@@ -2124,7 +2124,7 @@
         <v>157</v>
       </c>
       <c r="I29" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="J29" t="s">
         <v>176</v>
@@ -2156,7 +2156,7 @@
         <v>158</v>
       </c>
       <c r="I30" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="J30" t="s">
         <v>177</v>
@@ -2188,7 +2188,7 @@
         <v>157</v>
       </c>
       <c r="I31" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="J31" t="s">
         <v>178</v>
@@ -2220,7 +2220,7 @@
         <v>158</v>
       </c>
       <c r="I32" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="J32" t="s">
         <v>179</v>
@@ -2252,7 +2252,7 @@
         <v>157</v>
       </c>
       <c r="I33" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="J33" t="s">
         <v>180</v>
@@ -2284,7 +2284,7 @@
         <v>158</v>
       </c>
       <c r="I34" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="J34" t="s">
         <v>181</v>
@@ -2316,7 +2316,7 @@
         <v>157</v>
       </c>
       <c r="I35" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="J35" t="s">
         <v>182</v>
@@ -2348,7 +2348,7 @@
         <v>158</v>
       </c>
       <c r="I36" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="J36" t="s">
         <v>183</v>
@@ -2380,7 +2380,7 @@
         <v>157</v>
       </c>
       <c r="I37" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="J37" t="s">
         <v>184</v>
@@ -2412,7 +2412,7 @@
         <v>158</v>
       </c>
       <c r="I38" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="J38" t="s">
         <v>185</v>
@@ -2444,7 +2444,7 @@
         <v>157</v>
       </c>
       <c r="I39" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J39" t="s">
         <v>186</v>
@@ -2476,7 +2476,7 @@
         <v>158</v>
       </c>
       <c r="I40" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J40" t="s">
         <v>187</v>
@@ -2508,7 +2508,7 @@
         <v>157</v>
       </c>
       <c r="I41" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J41" t="s">
         <v>188</v>
@@ -2540,7 +2540,7 @@
         <v>158</v>
       </c>
       <c r="I42" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J42" t="s">
         <v>189</v>
@@ -2572,7 +2572,7 @@
         <v>157</v>
       </c>
       <c r="I43" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J43" t="s">
         <v>190</v>
@@ -2604,7 +2604,7 @@
         <v>158</v>
       </c>
       <c r="I44" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J44" t="s">
         <v>191</v>
@@ -2636,7 +2636,7 @@
         <v>157</v>
       </c>
       <c r="I45" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J45" t="s">
         <v>192</v>
@@ -2668,7 +2668,7 @@
         <v>158</v>
       </c>
       <c r="I46" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J46" t="s">
         <v>193</v>
@@ -2700,7 +2700,7 @@
         <v>157</v>
       </c>
       <c r="I47" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J47" t="s">
         <v>194</v>
@@ -2732,7 +2732,7 @@
         <v>158</v>
       </c>
       <c r="I48" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J48" t="s">
         <v>195</v>
@@ -2761,7 +2761,7 @@
         <v>174</v>
       </c>
       <c r="I49" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J49" t="s">
         <v>44</v>
@@ -2790,7 +2790,7 @@
         <v>175</v>
       </c>
       <c r="I50" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="J50" t="s">
         <v>45</v>
@@ -2819,7 +2819,7 @@
         <v>175</v>
       </c>
       <c r="I51" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="J51" t="s">
         <v>46</v>
@@ -2848,7 +2848,7 @@
         <v>175</v>
       </c>
       <c r="I52" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="J52" t="s">
         <v>47</v>
@@ -2877,7 +2877,7 @@
         <v>175</v>
       </c>
       <c r="I53" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="J53" t="s">
         <v>48</v>
@@ -2906,7 +2906,7 @@
         <v>174</v>
       </c>
       <c r="I54" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J54" t="s">
         <v>49</v>
@@ -2935,7 +2935,7 @@
         <v>174</v>
       </c>
       <c r="I55" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J55" t="s">
         <v>50</v>
@@ -2964,7 +2964,7 @@
         <v>174</v>
       </c>
       <c r="I56" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J56" t="s">
         <v>51</v>
@@ -2993,7 +2993,7 @@
         <v>174</v>
       </c>
       <c r="I57" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J57" t="s">
         <v>52</v>
@@ -3022,7 +3022,7 @@
         <v>174</v>
       </c>
       <c r="I58" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="J58" t="s">
         <v>54</v>
@@ -3051,7 +3051,7 @@
         <v>174</v>
       </c>
       <c r="I59" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="J59" t="s">
         <v>56</v>
@@ -3080,7 +3080,7 @@
         <v>175</v>
       </c>
       <c r="I60" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="J60" t="s">
         <v>57</v>
@@ -3109,7 +3109,7 @@
         <v>175</v>
       </c>
       <c r="I61" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="J61" t="s">
         <v>58</v>
@@ -3138,7 +3138,7 @@
         <v>174</v>
       </c>
       <c r="I62" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="J62" t="s">
         <v>60</v>
@@ -3167,7 +3167,7 @@
         <v>175</v>
       </c>
       <c r="I63" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J63" t="s">
         <v>61</v>
@@ -3196,7 +3196,7 @@
         <v>174</v>
       </c>
       <c r="I64" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="J64" t="s">
         <v>63</v>
@@ -3225,7 +3225,7 @@
         <v>175</v>
       </c>
       <c r="I65" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J65" t="s">
         <v>64</v>
@@ -3257,7 +3257,7 @@
         <v>157</v>
       </c>
       <c r="I66" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J66" t="s">
         <v>196</v>
@@ -3289,7 +3289,7 @@
         <v>158</v>
       </c>
       <c r="I67" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J67" t="s">
         <v>197</v>
@@ -3321,7 +3321,7 @@
         <v>157</v>
       </c>
       <c r="I68" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J68" t="s">
         <v>198</v>
@@ -3353,7 +3353,7 @@
         <v>158</v>
       </c>
       <c r="I69" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J69" t="s">
         <v>199</v>
@@ -3379,7 +3379,7 @@
         <v>174</v>
       </c>
       <c r="I70" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="J70" t="s">
         <v>67</v>
@@ -3405,7 +3405,7 @@
         <v>175</v>
       </c>
       <c r="I71" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="J71" t="s">
         <v>68</v>
@@ -3422,7 +3422,7 @@
   <dimension ref="A1:K40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3442,22 +3442,22 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B1" t="s">
         <v>231</v>
       </c>
       <c r="C1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D1" t="s">
         <v>237</v>
       </c>
       <c r="E1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -3468,31 +3468,31 @@
         <v>224</v>
       </c>
       <c r="C2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D2" t="s">
+        <v>289</v>
+      </c>
+      <c r="E2" t="s">
         <v>290</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
+        <v>288</v>
+      </c>
+      <c r="G2" t="s">
         <v>291</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>289</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
+        <v>289</v>
+      </c>
+      <c r="J2" t="s">
+        <v>288</v>
+      </c>
+      <c r="K2" t="s">
         <v>292</v>
-      </c>
-      <c r="H2" t="s">
-        <v>290</v>
-      </c>
-      <c r="I2" t="s">
-        <v>290</v>
-      </c>
-      <c r="J2" t="s">
-        <v>289</v>
-      </c>
-      <c r="K2" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -3592,7 +3592,7 @@
         <v>Metálico</v>
       </c>
       <c r="J5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="K5" t="s">
         <v>70</v>
@@ -3625,7 +3625,7 @@
         <v>Metálico</v>
       </c>
       <c r="J6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="K6" t="s">
         <v>72</v>
@@ -3658,7 +3658,7 @@
         <v>Metálico</v>
       </c>
       <c r="J7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="K7" t="s">
         <v>75</v>
@@ -3691,7 +3691,7 @@
         <v>Metálico</v>
       </c>
       <c r="J8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="K8" t="s">
         <v>77</v>
@@ -3724,7 +3724,7 @@
         <v>Plástico</v>
       </c>
       <c r="J9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K9" t="s">
         <v>78</v>
@@ -3757,7 +3757,7 @@
         <v>Metálico</v>
       </c>
       <c r="J10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="K10" t="s">
         <v>80</v>
@@ -3790,7 +3790,7 @@
         <v>Plástico</v>
       </c>
       <c r="J11" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K11" t="s">
         <v>81</v>
@@ -3823,7 +3823,7 @@
         <v>Metálico</v>
       </c>
       <c r="J12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="K12" t="s">
         <v>83</v>
@@ -3856,7 +3856,7 @@
         <v>Plástico</v>
       </c>
       <c r="J13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K13" t="s">
         <v>84</v>
@@ -3889,7 +3889,7 @@
         <v>Plástico</v>
       </c>
       <c r="J14" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K14" t="s">
         <v>85</v>
@@ -3922,7 +3922,7 @@
         <v>Plástico</v>
       </c>
       <c r="J15" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K15" t="s">
         <v>86</v>
@@ -3955,7 +3955,7 @@
         <v>Plástico</v>
       </c>
       <c r="J16" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K16" t="s">
         <v>87</v>
@@ -3988,7 +3988,7 @@
         <v>Metálico</v>
       </c>
       <c r="J17" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="K17" t="s">
         <v>88</v>
@@ -4021,7 +4021,7 @@
         <v>Metálico</v>
       </c>
       <c r="J18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="K18" t="s">
         <v>89</v>
@@ -4054,7 +4054,7 @@
         <v>Metálico</v>
       </c>
       <c r="J19" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="K19" t="s">
         <v>90</v>
@@ -4087,7 +4087,7 @@
         <v>Metálico</v>
       </c>
       <c r="J20" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="K20" t="s">
         <v>91</v>
@@ -4120,7 +4120,7 @@
         <v>Plástico</v>
       </c>
       <c r="J21" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K21" t="s">
         <v>92</v>
@@ -4153,7 +4153,7 @@
         <v>Plástico</v>
       </c>
       <c r="J22" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K22" t="s">
         <v>93</v>
@@ -4186,7 +4186,7 @@
         <v>Plástico</v>
       </c>
       <c r="J23" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K23" t="s">
         <v>94</v>
@@ -4219,7 +4219,7 @@
         <v>Plástico</v>
       </c>
       <c r="J24" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K24" t="s">
         <v>95</v>
@@ -4255,7 +4255,7 @@
         <v>157</v>
       </c>
       <c r="J25" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K25" t="s">
         <v>155</v>
@@ -4291,7 +4291,7 @@
         <v>158</v>
       </c>
       <c r="J26" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K26" t="s">
         <v>156</v>
@@ -4327,7 +4327,7 @@
         <v>157</v>
       </c>
       <c r="J27" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K27" t="s">
         <v>159</v>
@@ -4363,7 +4363,7 @@
         <v>158</v>
       </c>
       <c r="J28" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K28" t="s">
         <v>160</v>
@@ -4399,7 +4399,7 @@
         <v>157</v>
       </c>
       <c r="J29" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K29" t="s">
         <v>161</v>
@@ -4435,7 +4435,7 @@
         <v>158</v>
       </c>
       <c r="J30" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K30" t="s">
         <v>162</v>
@@ -4471,7 +4471,7 @@
         <v>157</v>
       </c>
       <c r="J31" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K31" t="s">
         <v>163</v>
@@ -4507,7 +4507,7 @@
         <v>158</v>
       </c>
       <c r="J32" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K32" t="s">
         <v>164</v>
@@ -4543,7 +4543,7 @@
         <v>157</v>
       </c>
       <c r="J33" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K33" t="s">
         <v>165</v>
@@ -4579,7 +4579,7 @@
         <v>158</v>
       </c>
       <c r="J34" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K34" t="s">
         <v>166</v>
@@ -4615,7 +4615,7 @@
         <v>157</v>
       </c>
       <c r="J35" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K35" t="s">
         <v>167</v>
@@ -4651,7 +4651,7 @@
         <v>158</v>
       </c>
       <c r="J36" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K36" t="s">
         <v>168</v>
@@ -4684,7 +4684,7 @@
         <v>Plástico</v>
       </c>
       <c r="J37" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K37" t="s">
         <v>96</v>
@@ -4717,7 +4717,7 @@
         <v>Plástico</v>
       </c>
       <c r="J38" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K38" t="s">
         <v>97</v>
@@ -4750,7 +4750,7 @@
         <v>Metálico</v>
       </c>
       <c r="J39" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K39" t="s">
         <v>98</v>
@@ -4783,7 +4783,7 @@
         <v>Metálico</v>
       </c>
       <c r="J40" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K40" t="s">
         <v>99</v>
@@ -4799,7 +4799,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4813,7 +4813,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B1" t="s">
         <v>231</v>
@@ -4825,27 +4825,27 @@
         <v>241</v>
       </c>
       <c r="E1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -4893,7 +4893,7 @@
         <v>118</v>
       </c>
       <c r="D5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E5" t="s">
         <v>119</v>
@@ -4910,7 +4910,7 @@
         <v>118</v>
       </c>
       <c r="D6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E6" t="s">
         <v>120</v>
@@ -4927,7 +4927,7 @@
         <v>118</v>
       </c>
       <c r="D7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E7" t="s">
         <v>121</v>
@@ -4944,7 +4944,7 @@
         <v>118</v>
       </c>
       <c r="D8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E8" t="s">
         <v>122</v>
@@ -4961,7 +4961,7 @@
         <v>118</v>
       </c>
       <c r="D9" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E9" t="s">
         <v>123</v>
@@ -4978,7 +4978,7 @@
         <v>124</v>
       </c>
       <c r="D10" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E10" t="s">
         <v>125</v>
@@ -4995,7 +4995,7 @@
         <v>124</v>
       </c>
       <c r="D11" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E11" t="s">
         <v>126</v>
@@ -5012,7 +5012,7 @@
         <v>124</v>
       </c>
       <c r="D12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E12" t="s">
         <v>127</v>
@@ -5029,7 +5029,7 @@
         <v>124</v>
       </c>
       <c r="D13" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E13" t="s">
         <v>128</v>
@@ -5046,7 +5046,7 @@
         <v>124</v>
       </c>
       <c r="D14" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E14" t="s">
         <v>129</v>
@@ -5063,7 +5063,7 @@
         <v>130</v>
       </c>
       <c r="D15" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E15" t="s">
         <v>131</v>
@@ -5080,7 +5080,7 @@
         <v>130</v>
       </c>
       <c r="D16" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E16" t="s">
         <v>132</v>
@@ -5097,7 +5097,7 @@
         <v>130</v>
       </c>
       <c r="D17" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E17" t="s">
         <v>133</v>
@@ -5114,7 +5114,7 @@
         <v>130</v>
       </c>
       <c r="D18" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E18" t="s">
         <v>134</v>
@@ -5131,7 +5131,7 @@
         <v>130</v>
       </c>
       <c r="D19" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E19" t="s">
         <v>135</v>
@@ -5148,7 +5148,7 @@
         <v>136</v>
       </c>
       <c r="D20" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E20" t="s">
         <v>137</v>
@@ -5165,7 +5165,7 @@
         <v>136</v>
       </c>
       <c r="D21" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E21" t="s">
         <v>138</v>
@@ -5182,7 +5182,7 @@
         <v>136</v>
       </c>
       <c r="D22" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E22" t="s">
         <v>139</v>
@@ -5199,7 +5199,7 @@
         <v>136</v>
       </c>
       <c r="D23" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E23" t="s">
         <v>140</v>
@@ -5216,7 +5216,7 @@
         <v>136</v>
       </c>
       <c r="D24" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E24" t="s">
         <v>141</v>
@@ -5232,8 +5232,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5248,42 +5248,42 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B1" t="s">
         <v>231</v>
       </c>
       <c r="C1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D1" t="s">
         <v>242</v>
       </c>
       <c r="E1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B2" t="s">
+        <v>288</v>
+      </c>
+      <c r="C2" t="s">
         <v>289</v>
       </c>
-      <c r="C2" t="s">
-        <v>290</v>
-      </c>
       <c r="D2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -5320,7 +5320,7 @@
         <v>205</v>
       </c>
       <c r="E4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F4" t="s">
         <v>150</v>
@@ -5340,7 +5340,7 @@
         <v>157</v>
       </c>
       <c r="E5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F5" t="s">
         <v>206</v>
@@ -5360,7 +5360,7 @@
         <v>158</v>
       </c>
       <c r="E6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F6" t="s">
         <v>207</v>
@@ -5380,7 +5380,7 @@
         <v>157</v>
       </c>
       <c r="E7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F7" t="s">
         <v>208</v>
@@ -5400,7 +5400,7 @@
         <v>158</v>
       </c>
       <c r="E8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F8" t="s">
         <v>209</v>
@@ -5420,7 +5420,7 @@
         <v>157</v>
       </c>
       <c r="E9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F9" t="s">
         <v>210</v>
@@ -5440,7 +5440,7 @@
         <v>158</v>
       </c>
       <c r="E10" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F10" t="s">
         <v>211</v>
@@ -5460,7 +5460,7 @@
         <v>157</v>
       </c>
       <c r="E11" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F11" t="s">
         <v>212</v>
@@ -5480,7 +5480,7 @@
         <v>158</v>
       </c>
       <c r="E12" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F12" t="s">
         <v>213</v>
@@ -5500,7 +5500,7 @@
         <v>157</v>
       </c>
       <c r="E13" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F13" t="s">
         <v>214</v>
@@ -5520,7 +5520,7 @@
         <v>158</v>
       </c>
       <c r="E14" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F14" t="s">
         <v>215</v>
@@ -5536,7 +5536,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5551,42 +5551,42 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B1" t="s">
         <v>231</v>
       </c>
       <c r="C1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D1" t="s">
         <v>243</v>
       </c>
-      <c r="E1" t="s">
-        <v>284</v>
+      <c r="E1" s="1" t="s">
+        <v>283</v>
       </c>
       <c r="F1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B2" t="s">
+        <v>288</v>
+      </c>
+      <c r="C2" t="s">
         <v>289</v>
       </c>
-      <c r="C2" t="s">
-        <v>290</v>
-      </c>
       <c r="D2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -5634,10 +5634,10 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F5" t="s">
         <v>100</v>
@@ -5651,7 +5651,7 @@
         <v>101</v>
       </c>
       <c r="E6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F6" t="s">
         <v>102</v>
@@ -5665,7 +5665,7 @@
         <v>103</v>
       </c>
       <c r="E7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F7" t="s">
         <v>104</v>
@@ -5679,7 +5679,7 @@
         <v>105</v>
       </c>
       <c r="E8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F8" t="s">
         <v>106</v>
@@ -5693,7 +5693,7 @@
         <v>107</v>
       </c>
       <c r="E9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F9" t="s">
         <v>108</v>
@@ -5707,7 +5707,7 @@
         <v>109</v>
       </c>
       <c r="E10" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F10" t="s">
         <v>110</v>
@@ -5721,7 +5721,7 @@
         <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F11" t="s">
         <v>112</v>
@@ -5735,7 +5735,7 @@
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F12" t="s">
         <v>114</v>
@@ -5749,7 +5749,7 @@
         <v>115</v>
       </c>
       <c r="E13" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F13" t="s">
         <v>116</v>
@@ -5763,7 +5763,7 @@
         <v>115</v>
       </c>
       <c r="E14" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F14" t="s">
         <v>117</v>
@@ -5777,7 +5777,7 @@
         <v>142</v>
       </c>
       <c r="E15" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F15" t="s">
         <v>143</v>
@@ -5788,7 +5788,7 @@
         <v>144</v>
       </c>
       <c r="E16" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F16" t="s">
         <v>145</v>
@@ -5799,7 +5799,7 @@
         <v>146</v>
       </c>
       <c r="E17" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F17" t="s">
         <v>147</v>
@@ -5810,7 +5810,7 @@
         <v>148</v>
       </c>
       <c r="E18" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F18" t="s">
         <v>149</v>
